--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256698.823131018</v>
+        <v>-259399.3605998421</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>191.4298910353887</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="F2" t="n">
-        <v>239.8079481415045</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>177.8818608425111</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.9130115062763</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
         <v>45.4458084395867</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>26.85163415768253</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -871,13 +871,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>62.38787899812007</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>92.26542699415006</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>137.3648232207245</v>
+        <v>64.75198761994223</v>
       </c>
       <c r="G5" t="n">
-        <v>410.6375786784531</v>
+        <v>410.6375786784537</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9865017432184</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -984,13 +984,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85195735900768</v>
+        <v>96.85195735900767</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359197</v>
+        <v>1.26199389935914</v>
       </c>
       <c r="S6" t="n">
-        <v>25.65559973443557</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
         <v>193.7444632813738</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>28.53766718644159</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.85574952585649</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3543942759101</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.249668337144</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.2398575583235</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2461902262361</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>34.48899474810764</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>336.9604483280287</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>243.3613788683489</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>51.940956343067</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>33.17559697514363</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.3514447403862</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>202.7831740438832</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>58.2772660449404</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>246.4709144419401</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>74.99129529219134</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301503</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588658</v>
       </c>
       <c r="V19" t="n">
-        <v>107.5034532829724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7058473537587</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>14.92158678358373</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>93.62264337260697</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>12.74007641194029</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428197</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179098</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>42.53134576113629</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>69.82863813027217</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428107</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712581</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.7865044148617</v>
+        <v>523.6380156196609</v>
       </c>
       <c r="C2" t="n">
-        <v>560.7865044148617</v>
+        <v>281.4077649716766</v>
       </c>
       <c r="D2" t="n">
-        <v>560.7865044148617</v>
+        <v>281.4077649716766</v>
       </c>
       <c r="E2" t="n">
-        <v>560.7865044148617</v>
+        <v>39.17751432369232</v>
       </c>
       <c r="F2" t="n">
-        <v>318.5562537668774</v>
+        <v>32.23201357448885</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192954</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.310696260548</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859555</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779374</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948967</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444232</v>
+        <v>924.2476725444228</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="T2" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="U2" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="V2" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="W2" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="X2" t="n">
-        <v>803.0167550628461</v>
+        <v>717.0015419180334</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.7865044148617</v>
+        <v>717.0015419180334</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.8615058395744</v>
+        <v>471.7774836947698</v>
       </c>
       <c r="C3" t="n">
-        <v>370.8615058395744</v>
+        <v>471.7774836947698</v>
       </c>
       <c r="D3" t="n">
-        <v>370.8615058395744</v>
+        <v>471.7774836947698</v>
       </c>
       <c r="E3" t="n">
-        <v>211.6240508341189</v>
+        <v>312.5400286893143</v>
       </c>
       <c r="F3" t="n">
-        <v>65.0894928610039</v>
+        <v>166.0054707161993</v>
       </c>
       <c r="G3" t="n">
-        <v>65.0894928610039</v>
+        <v>166.0054707161993</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J3" t="n">
-        <v>85.30141548166254</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450194</v>
+        <v>86.79245551467721</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607131</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153178</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679822</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>936.4948513640409</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="S3" t="n">
-        <v>959.231792566018</v>
+        <v>910.9970301826665</v>
       </c>
       <c r="T3" t="n">
-        <v>959.231792566018</v>
+        <v>714.0077343427541</v>
       </c>
       <c r="U3" t="n">
-        <v>959.231792566018</v>
+        <v>714.0077343427541</v>
       </c>
       <c r="V3" t="n">
-        <v>724.0796843342753</v>
+        <v>714.0077343427541</v>
       </c>
       <c r="W3" t="n">
-        <v>724.0796843342753</v>
+        <v>471.7774836947698</v>
       </c>
       <c r="X3" t="n">
-        <v>516.2281841287424</v>
+        <v>471.7774836947698</v>
       </c>
       <c r="Y3" t="n">
-        <v>516.2281841287424</v>
+        <v>471.7774836947698</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.405194874191</v>
+        <v>488.9360714540823</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4690119462841</v>
+        <v>488.9360714540823</v>
       </c>
       <c r="D4" t="n">
-        <v>321.3523725339484</v>
+        <v>488.9360714540823</v>
       </c>
       <c r="E4" t="n">
-        <v>173.4392789515553</v>
+        <v>488.9360714540823</v>
       </c>
       <c r="F4" t="n">
-        <v>173.4392789515553</v>
+        <v>342.0461239561719</v>
       </c>
       <c r="G4" t="n">
         <v>173.4392789515553</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="K4" t="n">
         <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>245.1780356031016</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>450.4476363223394</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030903</v>
+        <v>656.2710011584436</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916892</v>
+        <v>830.3658965470423</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456582</v>
+        <v>955.8134731456579</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="S4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="T4" t="n">
-        <v>733.602595878383</v>
+        <v>733.6025958783827</v>
       </c>
       <c r="U4" t="n">
-        <v>733.602595878383</v>
+        <v>670.584536284322</v>
       </c>
       <c r="V4" t="n">
-        <v>733.602595878383</v>
+        <v>670.584536284322</v>
       </c>
       <c r="W4" t="n">
-        <v>640.405194874191</v>
+        <v>670.584536284322</v>
       </c>
       <c r="X4" t="n">
-        <v>640.405194874191</v>
+        <v>670.584536284322</v>
       </c>
       <c r="Y4" t="n">
-        <v>640.405194874191</v>
+        <v>670.584536284322</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.550314713812</v>
+        <v>513.0424874037672</v>
       </c>
       <c r="C5" t="n">
-        <v>1642.550314713812</v>
+        <v>513.0424874037672</v>
       </c>
       <c r="D5" t="n">
-        <v>1284.284616107062</v>
+        <v>513.0424874037672</v>
       </c>
       <c r="E5" t="n">
-        <v>898.4963635088177</v>
+        <v>513.0424874037672</v>
       </c>
       <c r="F5" t="n">
-        <v>759.7440168212172</v>
+        <v>447.6364393028154</v>
       </c>
       <c r="G5" t="n">
-        <v>344.9585838126787</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="H5" t="n">
-        <v>32.85100629427625</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="I5" t="n">
-        <v>32.85100629427625</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="J5" t="n">
         <v>103.7588362828599</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230112</v>
+        <v>260.7698107230111</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340397</v>
+        <v>492.4575702340398</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861675</v>
+        <v>781.9242815861681</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334935</v>
+        <v>1080.688675334936</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.46815914367</v>
+        <v>1349.468159143672</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282339</v>
+        <v>1544.364229282341</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="T5" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="U5" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="V5" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="W5" t="n">
-        <v>1642.550314713812</v>
+        <v>1289.781659443701</v>
       </c>
       <c r="X5" t="n">
-        <v>1642.550314713812</v>
+        <v>1289.781659443701</v>
       </c>
       <c r="Y5" t="n">
-        <v>1642.550314713812</v>
+        <v>899.6423274678889</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.509584407936</v>
+        <v>575.9750264348211</v>
       </c>
       <c r="C6" t="n">
-        <v>722.509584407936</v>
+        <v>575.9750264348211</v>
       </c>
       <c r="D6" t="n">
-        <v>573.5751747466848</v>
+        <v>427.0406167735698</v>
       </c>
       <c r="E6" t="n">
-        <v>414.3377197412293</v>
+        <v>267.8031617681143</v>
       </c>
       <c r="F6" t="n">
         <v>267.8031617681143</v>
@@ -4638,58 +4638,58 @@
         <v>130.6812662528699</v>
       </c>
       <c r="H6" t="n">
-        <v>32.85100629427625</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="I6" t="n">
-        <v>32.85100629427625</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="J6" t="n">
-        <v>181.0955020982228</v>
+        <v>56.26537711121821</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2692159354146</v>
+        <v>433.1743036725821</v>
       </c>
       <c r="L6" t="n">
-        <v>511.9650693622714</v>
+        <v>638.3959866239225</v>
       </c>
       <c r="M6" t="n">
-        <v>770.8059618573122</v>
+        <v>897.2368791189635</v>
       </c>
       <c r="N6" t="n">
-        <v>1177.337164748981</v>
+        <v>1177.337164748982</v>
       </c>
       <c r="O6" t="n">
-        <v>1411.354408869191</v>
+        <v>1411.354408869192</v>
       </c>
       <c r="P6" t="n">
-        <v>1579.840812357062</v>
+        <v>1579.840812357064</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713812</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="R6" t="n">
-        <v>1641.275573401328</v>
+        <v>1641.275573401331</v>
       </c>
       <c r="S6" t="n">
-        <v>1615.360826194828</v>
+        <v>1497.743396113243</v>
       </c>
       <c r="T6" t="n">
-        <v>1419.659348132834</v>
+        <v>1302.041918051249</v>
       </c>
       <c r="U6" t="n">
-        <v>1419.659348132834</v>
+        <v>1273.215991600298</v>
       </c>
       <c r="V6" t="n">
-        <v>1184.507239901091</v>
+        <v>1038.063883368555</v>
       </c>
       <c r="W6" t="n">
-        <v>930.2698831728899</v>
+        <v>783.8265266403539</v>
       </c>
       <c r="X6" t="n">
-        <v>930.2698831728899</v>
+        <v>575.9750264348211</v>
       </c>
       <c r="Y6" t="n">
-        <v>722.509584407936</v>
+        <v>575.9750264348211</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.6140793234089</v>
+        <v>182.967645706612</v>
       </c>
       <c r="C7" t="n">
-        <v>331.6140793234089</v>
+        <v>182.967645706612</v>
       </c>
       <c r="D7" t="n">
-        <v>331.6140793234089</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="E7" t="n">
-        <v>331.6140793234089</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="F7" t="n">
-        <v>184.7241318254985</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="G7" t="n">
-        <v>184.7241318254985</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="H7" t="n">
-        <v>32.85100629427625</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="I7" t="n">
-        <v>32.85100629427625</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735805</v>
+        <v>33.89295411735816</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779933</v>
+        <v>165.4420311779935</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565134</v>
+        <v>389.3059936565136</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409652</v>
+        <v>635.7282771409656</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268954</v>
+        <v>881.7258059268959</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100018</v>
+        <v>1092.928044100019</v>
       </c>
       <c r="P7" t="n">
         <v>1250.127362942351</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871345</v>
+        <v>1275.528942871346</v>
       </c>
       <c r="R7" t="n">
-        <v>1157.094934449987</v>
+        <v>1275.528942871346</v>
       </c>
       <c r="S7" t="n">
-        <v>1157.094934449987</v>
+        <v>1275.528942871346</v>
       </c>
       <c r="T7" t="n">
-        <v>1157.094934449987</v>
+        <v>1051.044238266978</v>
       </c>
       <c r="U7" t="n">
-        <v>1157.094934449987</v>
+        <v>761.9066723818914</v>
       </c>
       <c r="V7" t="n">
-        <v>902.4104462441004</v>
+        <v>507.2221841760046</v>
       </c>
       <c r="W7" t="n">
-        <v>612.9932762071398</v>
+        <v>217.805014139044</v>
       </c>
       <c r="X7" t="n">
-        <v>385.0037253091225</v>
+        <v>217.805014139044</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.0037253091225</v>
+        <v>182.967645706612</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1855.42872127137</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C8" t="n">
-        <v>1855.42872127137</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>1497.163022664619</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1111.374770066375</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2316.519753785662</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1985.456866442092</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="X8" t="n">
-        <v>1855.42872127137</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="Y8" t="n">
-        <v>1855.42872127137</v>
+        <v>1632.688211171978</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.7605118677428</v>
+        <v>517.1895564061562</v>
       </c>
       <c r="C10" t="n">
-        <v>750.7605118677428</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1583.980507606753</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1583.980507606753</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1294.86217011059</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.177681904703</v>
+        <v>988.2551912733566</v>
       </c>
       <c r="W10" t="n">
-        <v>750.7605118677428</v>
+        <v>698.8380212363959</v>
       </c>
       <c r="X10" t="n">
-        <v>750.7605118677428</v>
+        <v>698.8380212363959</v>
       </c>
       <c r="Y10" t="n">
-        <v>750.7605118677428</v>
+        <v>698.8380212363959</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724786</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784373</v>
+        <v>1964.490382814044</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793782</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>394.8347622605876</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656963</v>
       </c>
       <c r="L11" t="n">
         <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479995</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796037</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796037</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377402</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.41074749893</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155359</v>
+        <v>3114.695313115058</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885245</v>
+        <v>3114.695313115058</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624166</v>
+        <v>2741.229554853978</v>
       </c>
       <c r="Y11" t="n">
-        <v>2362.113446624166</v>
+        <v>2351.090222878166</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>84.53144813504093</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>503.2284887929928</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1011.185054749521</v>
       </c>
       <c r="N12" t="n">
         <v>1546.994364450732</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.2887339858344</v>
+        <v>1003.287366026812</v>
       </c>
       <c r="C13" t="n">
-        <v>686.3525510579275</v>
+        <v>834.3511830989048</v>
       </c>
       <c r="D13" t="n">
-        <v>627.4866257600081</v>
+        <v>684.2345436865692</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>536.3214501041761</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>221.933519417454</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592074</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="T13" t="n">
-        <v>1916.471636177248</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.379943126699</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="V13" t="n">
-        <v>1372.695454920812</v>
+        <v>1882.678480536922</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.278284883852</v>
+        <v>1633.717960898599</v>
       </c>
       <c r="X13" t="n">
-        <v>855.2887339858344</v>
+        <v>1405.728410000582</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.2887339858344</v>
+        <v>1184.935830857051</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647279</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>631.564586536821</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782939</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949676</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>659.9487421954783</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>491.0125592675714</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.91737983266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854703</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V19" t="n">
-        <v>1579.796507104226</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W19" t="n">
-        <v>1290.379337067265</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X19" t="n">
-        <v>1062.389786169248</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y19" t="n">
-        <v>841.597207025718</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2018.188796316453</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6078,10 +6078,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556948</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>565.7099969556948</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>417.7969033733016</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>734.6461798836015</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>565.7099969556946</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>415.5933575433588</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>415.5933575433588</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>415.5933575433588</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>106.6854271004368</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138412</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270446</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851662</v>
+        <v>945.4026036630039</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572593</v>
+        <v>776.466420735097</v>
       </c>
       <c r="D34" t="n">
-        <v>527.7722521572593</v>
+        <v>626.3497813227613</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>478.4366877403681</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>331.5467402424578</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>164.3506409573377</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855603</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199801</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993914</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956953</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058936</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.356899915406</v>
+        <v>945.4026036630039</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400713</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
         <v>402.7245934908938</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270436</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400722</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121654</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121654</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121654</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121654</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.502065570312</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.01783107116299</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>66.78462588923415</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045375</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702443</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104336</v>
+        <v>28.58095358104325</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>261.3486997213859</v>
       </c>
       <c r="L6" t="n">
-        <v>7.549667146986565</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>127.7079972339903</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.38239692309433</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>124.9690844262517</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90.33820697327195</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.05208389465088</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.62417772602102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012412</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.22910392194454</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6341900408556</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>40.32043864788594</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4994612393475</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>68.52575990662524</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>103.9026168854329</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.46607471595172</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300333</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194282</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038654</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1019509.090177541</v>
+        <v>1019509.090177542</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
-      <c r="C2" t="n">
-        <v>307890.6636991063</v>
-      </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
         <v>274720.9666028986</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837523</v>
@@ -26335,22 +26335,22 @@
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837524</v>
       </c>
-      <c r="K2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302679.9748837525</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="M2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
-      </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
         <v>302679.9748837524</v>
@@ -26366,16 +26366,16 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706861</v>
+        <v>189098.6751706867</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517698</v>
+        <v>237173.5150517697</v>
       </c>
       <c r="E3" t="n">
         <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353582</v>
+        <v>62744.31078353585</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203339</v>
+        <v>43966.08035203356</v>
       </c>
       <c r="L3" t="n">
         <v>58197.58031572247</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273091</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060265</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351607</v>
+        <v>210476.9869351605</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12891.4455871839</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26436,7 +26436,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26445,16 +26445,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683045</v>
@@ -26470,13 +26470,13 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911819</v>
+        <v>74737.94401911824</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-666564.2905213825</v>
       </c>
       <c r="C6" t="n">
-        <v>-166422.9424258588</v>
+        <v>-166422.9424258594</v>
       </c>
       <c r="D6" t="n">
-        <v>-166171.7177753271</v>
+        <v>-166171.7177753267</v>
       </c>
       <c r="E6" t="n">
-        <v>-136885.1214062487</v>
+        <v>-137106.2527202234</v>
       </c>
       <c r="F6" t="n">
-        <v>-747.6878574140428</v>
+        <v>-782.4257828492123</v>
       </c>
       <c r="G6" t="n">
-        <v>188560.5809130146</v>
+        <v>188525.8429875789</v>
       </c>
       <c r="H6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.842987579</v>
       </c>
       <c r="I6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.842987579</v>
       </c>
       <c r="J6" t="n">
-        <v>125816.270129479</v>
+        <v>125781.5322040431</v>
       </c>
       <c r="K6" t="n">
-        <v>144594.5005609812</v>
+        <v>144559.7626355456</v>
       </c>
       <c r="L6" t="n">
-        <v>130363.0005972922</v>
+        <v>130328.2626718567</v>
       </c>
       <c r="M6" t="n">
-        <v>106663.1772002838</v>
+        <v>106628.4392748484</v>
       </c>
       <c r="N6" t="n">
-        <v>138721.0067809912</v>
+        <v>138686.2688555556</v>
       </c>
       <c r="O6" t="n">
-        <v>188560.5809130147</v>
+        <v>188525.8429875791</v>
       </c>
       <c r="P6" t="n">
-        <v>188560.5809130148</v>
+        <v>188525.8429875791</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902863</v>
+        <v>740.5311575902867</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784531</v>
+        <v>410.6375786784537</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490093</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522217</v>
+        <v>147.0550572522221</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272528</v>
+        <v>193.5337345272527</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974116</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369486</v>
+        <v>170.8296305369493</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215856</v>
+        <v>229.9472534215854</v>
       </c>
       <c r="E4" t="n">
         <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415047</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369486</v>
+        <v>170.8296305369493</v>
       </c>
       <c r="L4" t="n">
         <v>229.9472534215854</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489708</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369486</v>
+        <v>170.8296305369493</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215856</v>
+        <v>229.9472534215854</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>191.3039506280919</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295031</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307574</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002069</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>235.0350431034257</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>129.9231525369646</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.4299905145491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.62017214359102</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,7 +27473,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>121.1204870883091</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941518</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>223.8727756599769</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>194.2575713424409</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>269.511222520987</v>
+        <v>342.1240581217692</v>
       </c>
       <c r="G5" t="n">
-        <v>1.688149157927022</v>
+        <v>1.688149157926452</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020684</v>
+        <v>95.70472393020677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316176</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
         <v>210.0639896953817</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175707</v>
+        <v>34.55541033175705</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>116.4412557807715</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8365899360328</v>
+        <v>197.2989227495912</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>126.9762306560808</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6555953037877</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.3543942759101</v>
       </c>
       <c r="I7" t="n">
         <v>115.2918344467883</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.249668337144</v>
       </c>
       <c r="S7" t="n">
         <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
-        <v>222.2398575583236</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2461902262361</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>184.0956586039871</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>69.91559741368269</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>7.683871260113136</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.7215040186705</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>218.9620463486844</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28330,10 +28330,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-2.629008122312371e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754917</v>
+        <v>2.977009678754919</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254881</v>
+        <v>30.48830037254882</v>
       </c>
       <c r="I5" t="n">
         <v>114.7711656401991</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222254</v>
+        <v>252.6699752222256</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239211</v>
+        <v>378.6867949239214</v>
       </c>
       <c r="L5" t="n">
-        <v>469.794454880117</v>
+        <v>469.7944548801173</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546748</v>
+        <v>522.7368507546751</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044373</v>
+        <v>531.1952795044376</v>
       </c>
       <c r="O5" t="n">
-        <v>501.592639511318</v>
+        <v>501.5926395113183</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670559</v>
+        <v>428.0977130670562</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466453</v>
+        <v>321.4835539466455</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330888</v>
+        <v>187.0045842330889</v>
       </c>
       <c r="S5" t="n">
-        <v>67.83860805462776</v>
+        <v>67.8386080546278</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874966</v>
+        <v>13.03185986874967</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003933</v>
+        <v>0.2381607743003935</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592840603118729</v>
+        <v>1.59284060311873</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748878</v>
+        <v>15.38348687748879</v>
       </c>
       <c r="I6" t="n">
-        <v>54.841222519658</v>
+        <v>54.84122251965803</v>
       </c>
       <c r="J6" t="n">
         <v>150.4885062797393</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886941</v>
+        <v>257.2088266886942</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236521</v>
+        <v>345.8490090236523</v>
       </c>
       <c r="M6" t="n">
-        <v>403.589480886706</v>
+        <v>403.5894808867062</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277961</v>
+        <v>414.2712935277964</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113232</v>
+        <v>378.9772991113234</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657159</v>
+        <v>304.1626937657161</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595065</v>
+        <v>203.3247057595067</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328394</v>
+        <v>98.89584025328399</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863076</v>
+        <v>29.58631558863078</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447857</v>
+        <v>6.420265413447861</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420217</v>
+        <v>0.1047921449420218</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671008</v>
+        <v>1.335384054671009</v>
       </c>
       <c r="H7" t="n">
         <v>11.87277823152952</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048046996</v>
+        <v>40.15864048046998</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524025</v>
+        <v>94.41165266524031</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1473474426862</v>
+        <v>155.1473474426863</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644515</v>
+        <v>198.5351893644516</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972017</v>
+        <v>209.3275204972018</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297918</v>
+        <v>204.3501799297919</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002258</v>
+        <v>188.7504662002259</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849371</v>
+        <v>161.5086314849372</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961332</v>
+        <v>111.8202047961333</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002548</v>
+        <v>60.04372304002553</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640292</v>
+        <v>23.27210211640293</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957941</v>
+        <v>5.705731869957945</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478234</v>
+        <v>0.07283913025478238</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>144.9058654583187</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279829</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
         <v>0.1701284769643799</v>
@@ -31911,46 +31911,46 @@
         <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.78462588923452</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>68.2907269326837</v>
@@ -34793,7 +34793,7 @@
         <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>176.5721284420611</v>
       </c>
       <c r="Q3" t="n">
         <v>22.96660727472408</v>
@@ -34860,7 +34860,7 @@
         <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>126.2075456122945</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295331</v>
@@ -34872,7 +34872,7 @@
         <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459996876</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
         <v>3.452847899353372</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553913</v>
+        <v>71.62407069553927</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789406</v>
+        <v>158.5969438789408</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101298</v>
+        <v>234.0280399101301</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274021</v>
+        <v>292.3906175274024</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078464</v>
+        <v>301.7822159078467</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896312</v>
+        <v>271.4944280896316</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117864</v>
+        <v>196.8647173117866</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219583</v>
+        <v>99.17786407219606</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>149.7419149534814</v>
+        <v>23.65087961307265</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3673877143351</v>
+        <v>380.7160874357211</v>
       </c>
       <c r="L6" t="n">
-        <v>214.8442963907645</v>
+        <v>207.2946292437782</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646877</v>
+        <v>261.4554469646879</v>
       </c>
       <c r="N6" t="n">
-        <v>410.6375786784531</v>
+        <v>282.9295814444631</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3810546668788</v>
+        <v>236.381054666879</v>
       </c>
       <c r="P6" t="n">
-        <v>170.1882863513857</v>
+        <v>170.1882863513858</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.34293167348503</v>
+        <v>63.34293167348517</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567479</v>
+        <v>1.052472548567536</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168033</v>
+        <v>132.8778556168034</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247677</v>
+        <v>226.1252146247678</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590423</v>
+        <v>248.9113974590424</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090203</v>
+        <v>248.4823523090205</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142655</v>
+        <v>213.3355941142656</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498306</v>
+        <v>158.7871907498307</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443884</v>
+        <v>25.65816154443891</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>584.5244463807094</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>7.064426483959761</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059646</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240145</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295161</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998957</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
